--- a/Data/Reportfor_Status.xlsx
+++ b/Data/Reportfor_Status.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <x:si>
     <x:t>Module</x:t>
   </x:si>
@@ -578,6 +578,30 @@
   </x:si>
   <x:si>
     <x:t>27-01-2021 09:44:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 05:16:04 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 06:22:43 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 06:23:13 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 06:23:27 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 06:23:39 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 06:24:07 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 06:24:22 PM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27-01-2021 06:24:28 PM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3203,6 +3227,118 @@
         <x:v>185</x:v>
       </x:c>
     </x:row>
+    <x:row r="162" spans="1:4">
+      <x:c r="A162" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B162" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C162" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D162" s="4" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163" spans="1:4">
+      <x:c r="A163" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B163" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C163" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D163" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:4">
+      <x:c r="A164" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B164" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C164" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D164" s="4" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:4">
+      <x:c r="A165" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B165" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C165" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D165" s="4" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166" spans="1:4">
+      <x:c r="A166" s="4" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B166" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C166" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D166" s="4" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:4">
+      <x:c r="A167" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B167" s="4" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C167" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D167" s="4" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:4">
+      <x:c r="A168" s="4" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B168" s="4" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C168" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D168" s="4" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="1:4">
+      <x:c r="A169" s="4" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B169" s="4" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C169" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D169" s="4" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
